--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1325554.025490282</v>
+        <v>1322383.73799881</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31965533.67541051</v>
+        <v>31965533.67541049</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5016621.944648389</v>
+        <v>5016621.944648387</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>277.0485544052045</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>242.528015791373</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,16 +1533,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>158.9540795190311</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T13" t="n">
-        <v>239.9271657823968</v>
+        <v>22.51046031129138</v>
       </c>
       <c r="U13" t="n">
         <v>275.6040730435755</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>166.8148980191244</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>43.10424895726235</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,19 +1767,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>23.27244492928435</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.39895619425279</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T16" t="n">
         <v>239.9271657823968</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>103.7691038045774</v>
+        <v>294.8721029584531</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2013,10 +2013,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.9271657823968</v>
+        <v>109.0232307551459</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6040730435755</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>200.8558535971166</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>105.613285710018</v>
+        <v>43.10424895726245</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2298,7 +2298,7 @@
         <v>275.6040730435755</v>
       </c>
       <c r="V22" t="n">
-        <v>268.1000490694436</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>213.0007808414799</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.561099664736</v>
+        <v>222.5382293666019</v>
       </c>
       <c r="H23" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T23" t="n">
         <v>209.8874518549281</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V23" t="n">
-        <v>216.1599518958823</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2557,7 +2557,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>430.0070596992229</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H26" t="n">
         <v>267.5715797715652</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4842593842947</v>
+        <v>67.05662318529707</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2797,13 +2797,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>414.5449922024866</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.561099664736</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4842593842947</v>
+        <v>67.05662318529707</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>25.77726116952529</v>
+        <v>67.05662318529707</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>78.81988230104901</v>
       </c>
       <c r="C35" t="n">
-        <v>235.7691923894309</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>63.18515342099344</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>143.3999911908438</v>
+        <v>91.66503700178286</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.9271657823968</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V37" t="n">
-        <v>118.4754644696301</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>294.1762402070914</v>
+        <v>43.10424895726235</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>9.695315682474046</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.0317248776254</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.9271657823968</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>182.4897548527313</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>98.82219287751231</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3915,7 +3915,7 @@
         <v>163.1177378005102</v>
       </c>
       <c r="H43" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.9271657823968</v>
       </c>
       <c r="U43" t="n">
         <v>275.6040730435755</v>
       </c>
       <c r="V43" t="n">
-        <v>175.3626852166192</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>124.7604564491211</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>131.9938737572018</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4842593842947</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>236.6842199831746</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>147.556070700797</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.2337281429463</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.9271657823968</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>119.4328774849031</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2293.09180942793</v>
+        <v>1164.89188755935</v>
       </c>
       <c r="C11" t="n">
-        <v>2013.244784776209</v>
+        <v>726.7494147427738</v>
       </c>
       <c r="D11" t="n">
-        <v>1577.334999950653</v>
+        <v>290.8396299172182</v>
       </c>
       <c r="E11" t="n">
-        <v>1143.560255108948</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="F11" t="n">
-        <v>715.6928255181559</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G11" t="n">
-        <v>316.1361591901397</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H11" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I11" t="n">
-        <v>115.0223243057314</v>
+        <v>115.022324305731</v>
       </c>
       <c r="J11" t="n">
-        <v>268.1792013766521</v>
+        <v>268.1792013766515</v>
       </c>
       <c r="K11" t="n">
-        <v>497.7216582812913</v>
+        <v>497.7216582812908</v>
       </c>
       <c r="L11" t="n">
-        <v>782.489373603983</v>
+        <v>782.4893736039826</v>
       </c>
       <c r="M11" t="n">
-        <v>1099.348325765038</v>
+        <v>1099.348325765037</v>
       </c>
       <c r="N11" t="n">
         <v>1421.334387037893</v>
       </c>
       <c r="O11" t="n">
-        <v>1725.37669424811</v>
+        <v>1725.376694248109</v>
       </c>
       <c r="P11" t="n">
         <v>1984.869769184644</v>
       </c>
       <c r="Q11" t="n">
-        <v>2179.738261607713</v>
+        <v>2179.738261607712</v>
       </c>
       <c r="R11" t="n">
         <v>2293.09180942793</v>
       </c>
       <c r="S11" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T11" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U11" t="n">
-        <v>2293.09180942793</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="V11" t="n">
-        <v>2293.09180942793</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="W11" t="n">
-        <v>2293.09180942793</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="X11" t="n">
-        <v>2293.09180942793</v>
+        <v>1573.178011259697</v>
       </c>
       <c r="Y11" t="n">
-        <v>2293.09180942793</v>
+        <v>1164.89188755935</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C12" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D12" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E12" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F12" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G12" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H12" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I12" t="n">
-        <v>79.1040540993927</v>
+        <v>79.10405409939268</v>
       </c>
       <c r="J12" t="n">
-        <v>217.6935543531096</v>
+        <v>170.3232408531859</v>
       </c>
       <c r="K12" t="n">
-        <v>373.6016736936418</v>
+        <v>326.2313601937183</v>
       </c>
       <c r="L12" t="n">
-        <v>583.2393804039401</v>
+        <v>535.8690669040166</v>
       </c>
       <c r="M12" t="n">
-        <v>827.8766961630338</v>
+        <v>780.5063826631101</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.988833729219</v>
+        <v>1031.618520229295</v>
       </c>
       <c r="O12" t="n">
-        <v>1308.707380864125</v>
+        <v>1261.337067364201</v>
       </c>
       <c r="P12" t="n">
-        <v>1493.076767284748</v>
+        <v>1445.706453784825</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.322819523846</v>
+        <v>1568.952506023922</v>
       </c>
       <c r="R12" t="n">
         <v>1676.26891337681</v>
@@ -5162,10 +5162,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X12" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y12" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>548.741227736446</v>
+        <v>895.5319900090046</v>
       </c>
       <c r="C13" t="n">
-        <v>376.179516219671</v>
+        <v>722.9702784922296</v>
       </c>
       <c r="D13" t="n">
-        <v>215.6198399378214</v>
+        <v>557.0922856937523</v>
       </c>
       <c r="E13" t="n">
-        <v>45.86183618855861</v>
+        <v>387.3342819444895</v>
       </c>
       <c r="F13" t="n">
-        <v>45.86183618855861</v>
+        <v>210.6272279062457</v>
       </c>
       <c r="G13" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H13" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I13" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J13" t="n">
-        <v>103.0898224920169</v>
+        <v>189.6695076567068</v>
       </c>
       <c r="K13" t="n">
-        <v>197.1329837313375</v>
+        <v>558.4711234671629</v>
       </c>
       <c r="L13" t="n">
-        <v>735.6857339584418</v>
+        <v>1097.023873694267</v>
       </c>
       <c r="M13" t="n">
-        <v>862.5704154333719</v>
+        <v>1223.908555169197</v>
       </c>
       <c r="N13" t="n">
-        <v>1428.69686594168</v>
+        <v>1347.776202519861</v>
       </c>
       <c r="O13" t="n">
-        <v>1962.777936055487</v>
+        <v>1596.308688496626</v>
       </c>
       <c r="P13" t="n">
-        <v>2209.907435353829</v>
+        <v>2041.714660489497</v>
       </c>
       <c r="Q13" t="n">
         <v>2277.687682472404</v>
@@ -5226,25 +5226,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S13" t="n">
-        <v>2293.09180942793</v>
+        <v>2148.243333477583</v>
       </c>
       <c r="T13" t="n">
-        <v>2050.741136920459</v>
+        <v>2125.505494779309</v>
       </c>
       <c r="U13" t="n">
-        <v>1772.353184351191</v>
+        <v>1847.117542210041</v>
       </c>
       <c r="V13" t="n">
-        <v>1485.397676221621</v>
+        <v>1560.162034080471</v>
       </c>
       <c r="W13" t="n">
-        <v>1213.371271807913</v>
+        <v>1560.162034080471</v>
       </c>
       <c r="X13" t="n">
-        <v>967.979517141325</v>
+        <v>1314.770279413884</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.5598464554332</v>
+        <v>1087.350608727992</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1522.18873566141</v>
+        <v>1781.556268263188</v>
       </c>
       <c r="C14" t="n">
-        <v>1084.046262844834</v>
+        <v>1343.413795446611</v>
       </c>
       <c r="D14" t="n">
-        <v>648.136478019278</v>
+        <v>907.5040106210556</v>
       </c>
       <c r="E14" t="n">
-        <v>214.3617331775732</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F14" t="n">
-        <v>214.3617331775732</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G14" t="n">
-        <v>214.3617331775732</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H14" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I14" t="n">
-        <v>115.0223243057315</v>
+        <v>115.0223243057312</v>
       </c>
       <c r="J14" t="n">
-        <v>268.1792013766522</v>
+        <v>268.179201376652</v>
       </c>
       <c r="K14" t="n">
-        <v>497.7216582812914</v>
+        <v>497.7216582812912</v>
       </c>
       <c r="L14" t="n">
         <v>782.489373603983</v>
       </c>
       <c r="M14" t="n">
-        <v>1099.348325765037</v>
+        <v>1099.348325765038</v>
       </c>
       <c r="N14" t="n">
         <v>1421.334387037893</v>
@@ -5305,25 +5305,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S14" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T14" t="n">
-        <v>2293.09180942793</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="U14" t="n">
-        <v>2293.09180942793</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="V14" t="n">
-        <v>1930.474859361757</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="W14" t="n">
-        <v>1930.474859361757</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="X14" t="n">
-        <v>1930.474859361757</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="Y14" t="n">
-        <v>1522.18873566141</v>
+        <v>2207.855838748096</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C15" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D15" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E15" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F15" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G15" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H15" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I15" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J15" t="n">
-        <v>217.6935543531096</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K15" t="n">
-        <v>373.6016736936418</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L15" t="n">
-        <v>583.2393804039401</v>
+        <v>561.932740064474</v>
       </c>
       <c r="M15" t="n">
-        <v>827.8766961630338</v>
+        <v>806.5700558235675</v>
       </c>
       <c r="N15" t="n">
         <v>1078.988833729219</v>
@@ -5399,10 +5399,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X15" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y15" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>827.1291803057143</v>
+        <v>403.8927517860987</v>
       </c>
       <c r="C16" t="n">
-        <v>654.5674687889392</v>
+        <v>380.3852316555084</v>
       </c>
       <c r="D16" t="n">
-        <v>488.6894759904619</v>
+        <v>380.3852316555084</v>
       </c>
       <c r="E16" t="n">
-        <v>318.9314722411992</v>
+        <v>210.6272279062457</v>
       </c>
       <c r="F16" t="n">
-        <v>142.2244182029554</v>
+        <v>210.6272279062457</v>
       </c>
       <c r="G16" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H16" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I16" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J16" t="n">
         <v>103.0898224920169</v>
       </c>
       <c r="K16" t="n">
-        <v>323.9177454166295</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L16" t="n">
-        <v>444.2606138757728</v>
+        <v>735.6857339584417</v>
       </c>
       <c r="M16" t="n">
-        <v>1011.800836709186</v>
+        <v>862.5704154333717</v>
       </c>
       <c r="N16" t="n">
-        <v>1577.927287217494</v>
+        <v>1428.69686594168</v>
       </c>
       <c r="O16" t="n">
-        <v>2112.0083573313</v>
+        <v>1962.777936055487</v>
       </c>
       <c r="P16" t="n">
         <v>2209.907435353829</v>
@@ -5463,25 +5463,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S16" t="n">
-        <v>2293.09180942793</v>
+        <v>2148.243333477583</v>
       </c>
       <c r="T16" t="n">
-        <v>2050.741136920459</v>
+        <v>1905.892660970111</v>
       </c>
       <c r="U16" t="n">
-        <v>2050.741136920459</v>
+        <v>1627.504708400843</v>
       </c>
       <c r="V16" t="n">
-        <v>1763.785628790889</v>
+        <v>1340.549200271274</v>
       </c>
       <c r="W16" t="n">
-        <v>1491.759224377181</v>
+        <v>1068.522795857565</v>
       </c>
       <c r="X16" t="n">
-        <v>1246.367469710593</v>
+        <v>823.1310411909776</v>
       </c>
       <c r="Y16" t="n">
-        <v>1018.947799024701</v>
+        <v>595.7113705050858</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1353.688838672396</v>
+        <v>881.3282873421304</v>
       </c>
       <c r="C17" t="n">
-        <v>915.546365855819</v>
+        <v>881.3282873421304</v>
       </c>
       <c r="D17" t="n">
-        <v>479.6365810302634</v>
+        <v>445.4185025165748</v>
       </c>
       <c r="E17" t="n">
-        <v>45.86183618855861</v>
+        <v>445.4185025165748</v>
       </c>
       <c r="F17" t="n">
-        <v>45.86183618855861</v>
+        <v>445.4185025165748</v>
       </c>
       <c r="G17" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H17" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I17" t="n">
-        <v>115.0223243057314</v>
+        <v>115.0223243057313</v>
       </c>
       <c r="J17" t="n">
-        <v>268.1792013766521</v>
+        <v>268.1792013766519</v>
       </c>
       <c r="K17" t="n">
-        <v>497.7216582812913</v>
+        <v>497.7216582812911</v>
       </c>
       <c r="L17" t="n">
-        <v>782.489373603983</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M17" t="n">
-        <v>1099.348325765038</v>
+        <v>1099.348325765037</v>
       </c>
       <c r="N17" t="n">
         <v>1421.334387037893</v>
       </c>
       <c r="O17" t="n">
-        <v>1725.37669424811</v>
+        <v>1725.376694248109</v>
       </c>
       <c r="P17" t="n">
         <v>1984.869769184644</v>
       </c>
       <c r="Q17" t="n">
-        <v>2179.738261607713</v>
+        <v>2179.738261607712</v>
       </c>
       <c r="R17" t="n">
         <v>2293.09180942793</v>
       </c>
       <c r="S17" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T17" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U17" t="n">
-        <v>2293.09180942793</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="V17" t="n">
-        <v>2293.09180942793</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="W17" t="n">
-        <v>2293.09180942793</v>
+        <v>1587.46502009142</v>
       </c>
       <c r="X17" t="n">
-        <v>2188.27453285765</v>
+        <v>1289.614411042477</v>
       </c>
       <c r="Y17" t="n">
-        <v>1779.988409157304</v>
+        <v>881.3282873421304</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C18" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D18" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E18" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F18" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G18" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H18" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I18" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J18" t="n">
-        <v>170.323240853186</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K18" t="n">
-        <v>326.2313601937183</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L18" t="n">
-        <v>535.8690669040166</v>
+        <v>561.932740064474</v>
       </c>
       <c r="M18" t="n">
-        <v>827.8766961630338</v>
+        <v>806.5700558235675</v>
       </c>
       <c r="N18" t="n">
-        <v>1078.988833729219</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O18" t="n">
-        <v>1308.707380864125</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P18" t="n">
-        <v>1493.076767284748</v>
+        <v>1471.770126945282</v>
       </c>
       <c r="Q18" t="n">
-        <v>1616.322819523846</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R18" t="n">
         <v>1676.26891337681</v>
@@ -5636,10 +5636,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X18" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y18" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>617.8829315470065</v>
+        <v>959.3553773029373</v>
       </c>
       <c r="C19" t="n">
-        <v>445.3212200302314</v>
+        <v>786.7936657861623</v>
       </c>
       <c r="D19" t="n">
-        <v>279.4432272317541</v>
+        <v>620.915672987685</v>
       </c>
       <c r="E19" t="n">
-        <v>109.6852234824914</v>
+        <v>451.1576692384223</v>
       </c>
       <c r="F19" t="n">
-        <v>109.6852234824914</v>
+        <v>274.4506152001785</v>
       </c>
       <c r="G19" t="n">
         <v>109.6852234824914</v>
@@ -5670,28 +5670,28 @@
         <v>109.6852234824914</v>
       </c>
       <c r="I19" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J19" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K19" t="n">
-        <v>558.4711234671629</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L19" t="n">
-        <v>678.8139919263062</v>
+        <v>735.6857339584417</v>
       </c>
       <c r="M19" t="n">
-        <v>1246.354214759719</v>
+        <v>1303.225956791854</v>
       </c>
       <c r="N19" t="n">
-        <v>1370.221862110383</v>
+        <v>1869.352407300163</v>
       </c>
       <c r="O19" t="n">
-        <v>1904.302932224189</v>
+        <v>2112.0083573313</v>
       </c>
       <c r="P19" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q19" t="n">
         <v>2277.687682472404</v>
@@ -5703,22 +5703,22 @@
         <v>2293.09180942793</v>
       </c>
       <c r="T19" t="n">
-        <v>2050.741136920459</v>
+        <v>2182.967333917682</v>
       </c>
       <c r="U19" t="n">
-        <v>1772.353184351191</v>
+        <v>2182.967333917682</v>
       </c>
       <c r="V19" t="n">
-        <v>1485.397676221621</v>
+        <v>1896.011825788112</v>
       </c>
       <c r="W19" t="n">
-        <v>1282.512975618473</v>
+        <v>1623.985421374404</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.121220951885</v>
+        <v>1378.593666707816</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.7015502659935</v>
+        <v>1151.173996021924</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1888.236354838964</v>
+        <v>1825.095913674564</v>
       </c>
       <c r="C20" t="n">
-        <v>1450.093882022387</v>
+        <v>1386.953440857988</v>
       </c>
       <c r="D20" t="n">
-        <v>1014.184097196832</v>
+        <v>951.043656032432</v>
       </c>
       <c r="E20" t="n">
-        <v>580.4093523551267</v>
+        <v>517.2689111907271</v>
       </c>
       <c r="F20" t="n">
-        <v>152.5419227643344</v>
+        <v>89.40148159993481</v>
       </c>
       <c r="G20" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H20" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I20" t="n">
         <v>115.0223243057313</v>
       </c>
       <c r="J20" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766519</v>
       </c>
       <c r="K20" t="n">
-        <v>497.7216582812912</v>
+        <v>497.7216582812911</v>
       </c>
       <c r="L20" t="n">
-        <v>782.4893736039829</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M20" t="n">
         <v>1099.348325765037</v>
@@ -5779,25 +5779,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S20" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T20" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U20" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="V20" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="W20" t="n">
-        <v>1888.236354838964</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="X20" t="n">
-        <v>1888.236354838964</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="Y20" t="n">
-        <v>1888.236354838964</v>
+        <v>2251.395484159472</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C21" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D21" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E21" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F21" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G21" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H21" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I21" t="n">
-        <v>79.1040540993927</v>
+        <v>79.10405409939268</v>
       </c>
       <c r="J21" t="n">
-        <v>217.6935543531096</v>
+        <v>217.6935543531099</v>
       </c>
       <c r="K21" t="n">
-        <v>373.6016736936418</v>
+        <v>373.6016736936421</v>
       </c>
       <c r="L21" t="n">
-        <v>583.2393804039401</v>
+        <v>583.2393804039403</v>
       </c>
       <c r="M21" t="n">
-        <v>827.8766961630338</v>
+        <v>827.8766961630339</v>
       </c>
       <c r="N21" t="n">
         <v>1078.988833729219</v>
@@ -5873,10 +5873,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X21" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y21" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.8886054928403</v>
+        <v>561.0085945420548</v>
       </c>
       <c r="C22" t="n">
-        <v>392.3268939760652</v>
+        <v>388.4468830252797</v>
       </c>
       <c r="D22" t="n">
-        <v>392.3268939760652</v>
+        <v>222.5688902268024</v>
       </c>
       <c r="E22" t="n">
         <v>222.5688902268024</v>
       </c>
       <c r="F22" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G22" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H22" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I22" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J22" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K22" t="n">
-        <v>558.4711234671629</v>
+        <v>471.8914383024731</v>
       </c>
       <c r="L22" t="n">
-        <v>678.8139919263062</v>
+        <v>1010.444188529577</v>
       </c>
       <c r="M22" t="n">
-        <v>1246.354214759719</v>
+        <v>1137.328870004508</v>
       </c>
       <c r="N22" t="n">
-        <v>1370.221862110383</v>
+        <v>1261.196517355172</v>
       </c>
       <c r="O22" t="n">
-        <v>1596.308688496626</v>
+        <v>1795.277587468978</v>
       </c>
       <c r="P22" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q22" t="n">
         <v>2277.687682472404</v>
@@ -5940,22 +5940,22 @@
         <v>2293.09180942793</v>
       </c>
       <c r="T22" t="n">
-        <v>2050.741136920459</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U22" t="n">
-        <v>1772.353184351191</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V22" t="n">
-        <v>1501.545053978015</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W22" t="n">
-        <v>1229.518649564307</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X22" t="n">
-        <v>984.1268948977192</v>
+        <v>967.9795171413245</v>
       </c>
       <c r="Y22" t="n">
-        <v>756.7072242118275</v>
+        <v>752.8272132610418</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2497.249093781344</v>
+        <v>2052.204194721041</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.106620964767</v>
+        <v>1614.061721904465</v>
       </c>
       <c r="D23" t="n">
-        <v>1623.196836139212</v>
+        <v>1178.151937078909</v>
       </c>
       <c r="E23" t="n">
-        <v>1189.422091297507</v>
+        <v>744.3771922372043</v>
       </c>
       <c r="F23" t="n">
-        <v>761.5546617067146</v>
+        <v>316.5097626464121</v>
       </c>
       <c r="G23" t="n">
-        <v>361.9979953786982</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="H23" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="I23" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J23" t="n">
-        <v>749.2957250181285</v>
+        <v>314.0410375652105</v>
       </c>
       <c r="K23" t="n">
-        <v>1813.188473880945</v>
+        <v>1377.933786428028</v>
       </c>
       <c r="L23" t="n">
-        <v>2097.956189203637</v>
+        <v>1662.701501750719</v>
       </c>
       <c r="M23" t="n">
-        <v>2414.815141364692</v>
+        <v>1979.560453911774</v>
       </c>
       <c r="N23" t="n">
-        <v>2736.801202637548</v>
+        <v>2301.54651518463</v>
       </c>
       <c r="O23" t="n">
-        <v>3190.158628842643</v>
+        <v>3190.158628842641</v>
       </c>
       <c r="P23" t="n">
-        <v>4277.961578612574</v>
+        <v>4277.961578612572</v>
       </c>
       <c r="Q23" t="n">
-        <v>4472.830071035643</v>
+        <v>4472.830071035641</v>
       </c>
       <c r="R23" t="n">
-        <v>4586.183618855861</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="S23" t="n">
-        <v>4586.183618855861</v>
+        <v>4544.487293587401</v>
       </c>
       <c r="T23" t="n">
-        <v>4374.176091729671</v>
+        <v>4332.479766461211</v>
       </c>
       <c r="U23" t="n">
-        <v>4374.176091729671</v>
+        <v>4073.404756982125</v>
       </c>
       <c r="V23" t="n">
-        <v>4155.832705976254</v>
+        <v>3710.787806915951</v>
       </c>
       <c r="W23" t="n">
-        <v>3750.977251387287</v>
+        <v>3305.932352326985</v>
       </c>
       <c r="X23" t="n">
-        <v>3331.834787966598</v>
+        <v>2886.789888906296</v>
       </c>
       <c r="Y23" t="n">
-        <v>2923.548664266251</v>
+        <v>2478.503765205949</v>
       </c>
     </row>
     <row r="24">
@@ -6047,49 +6047,49 @@
         <v>587.3962171017887</v>
       </c>
       <c r="C24" t="n">
-        <v>480.939755938431</v>
+        <v>480.9397559384309</v>
       </c>
       <c r="D24" t="n">
-        <v>385.8494670849843</v>
+        <v>385.8494670849842</v>
       </c>
       <c r="E24" t="n">
-        <v>291.729052411938</v>
+        <v>291.7290524119379</v>
       </c>
       <c r="F24" t="n">
-        <v>208.3452140280996</v>
+        <v>208.3452140280995</v>
       </c>
       <c r="G24" t="n">
-        <v>123.9452344427566</v>
+        <v>123.9452344427565</v>
       </c>
       <c r="H24" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="I24" t="n">
-        <v>124.9658902879513</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J24" t="n">
-        <v>216.1850770417446</v>
+        <v>242.2487502022021</v>
       </c>
       <c r="K24" t="n">
-        <v>372.0931963822769</v>
+        <v>398.1568695427344</v>
       </c>
       <c r="L24" t="n">
-        <v>629.1012165924986</v>
+        <v>607.7945762530327</v>
       </c>
       <c r="M24" t="n">
-        <v>873.7385323515923</v>
+        <v>852.4318920121262</v>
       </c>
       <c r="N24" t="n">
-        <v>1124.850669917777</v>
+        <v>1103.544029578311</v>
       </c>
       <c r="O24" t="n">
-        <v>1354.569217052684</v>
+        <v>1333.262576713217</v>
       </c>
       <c r="P24" t="n">
-        <v>1538.938603473307</v>
+        <v>1517.631963133841</v>
       </c>
       <c r="Q24" t="n">
-        <v>1662.184655712404</v>
+        <v>1640.878015372938</v>
       </c>
       <c r="R24" t="n">
         <v>1722.130749565368</v>
@@ -6135,7 +6135,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F25" t="n">
-        <v>452.8717727452486</v>
+        <v>452.8717727452485</v>
       </c>
       <c r="G25" t="n">
         <v>288.1063810275614</v>
@@ -6144,28 +6144,28 @@
         <v>155.54705967105</v>
       </c>
       <c r="I25" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="J25" t="n">
         <v>148.9516586805755</v>
       </c>
       <c r="K25" t="n">
-        <v>517.7532744910318</v>
+        <v>273.2564269178046</v>
       </c>
       <c r="L25" t="n">
-        <v>1056.306024718136</v>
+        <v>811.8091771449089</v>
       </c>
       <c r="M25" t="n">
-        <v>1642.674573373979</v>
+        <v>1398.177725800752</v>
       </c>
       <c r="N25" t="n">
-        <v>2208.801023882288</v>
+        <v>1964.30417630906</v>
       </c>
       <c r="O25" t="n">
-        <v>2677.699365528877</v>
+        <v>2498.385246422867</v>
       </c>
       <c r="P25" t="n">
-        <v>2775.598443551406</v>
+        <v>2943.791218415738</v>
       </c>
       <c r="Q25" t="n">
         <v>3011.571465534313</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2093.900519989501</v>
+        <v>2497.249093781344</v>
       </c>
       <c r="C26" t="n">
-        <v>1659.549954636751</v>
+        <v>2059.106620964767</v>
       </c>
       <c r="D26" t="n">
-        <v>1223.640169811195</v>
+        <v>1623.196836139212</v>
       </c>
       <c r="E26" t="n">
-        <v>789.8654249694905</v>
+        <v>1189.422091297507</v>
       </c>
       <c r="F26" t="n">
-        <v>361.9979953786982</v>
+        <v>761.5546617067145</v>
       </c>
       <c r="G26" t="n">
         <v>361.9979953786982</v>
       </c>
       <c r="H26" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="I26" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J26" t="n">
-        <v>749.2957250181285</v>
+        <v>749.2957250181283</v>
       </c>
       <c r="K26" t="n">
-        <v>978.8381819227676</v>
+        <v>1813.188473880945</v>
       </c>
       <c r="L26" t="n">
-        <v>1263.605897245459</v>
+        <v>2097.956189203637</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.464849406514</v>
+        <v>2414.815141364692</v>
       </c>
       <c r="N26" t="n">
-        <v>1902.45091067937</v>
+        <v>2736.801202637548</v>
       </c>
       <c r="O26" t="n">
-        <v>2474.505778130992</v>
+        <v>3040.843509847764</v>
       </c>
       <c r="P26" t="n">
-        <v>3562.308727900923</v>
+        <v>3562.308727900921</v>
       </c>
       <c r="Q26" t="n">
-        <v>4303.676006282586</v>
+        <v>4303.676006282584</v>
       </c>
       <c r="R26" t="n">
-        <v>4586.183618855861</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="S26" t="n">
-        <v>4586.183618855861</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="T26" t="n">
-        <v>4374.176091729671</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="U26" t="n">
-        <v>4115.101082250585</v>
+        <v>4518.449656042428</v>
       </c>
       <c r="V26" t="n">
-        <v>3752.484132184411</v>
+        <v>4155.832705976254</v>
       </c>
       <c r="W26" t="n">
-        <v>3347.628677595445</v>
+        <v>3750.977251387287</v>
       </c>
       <c r="X26" t="n">
-        <v>2928.486214174756</v>
+        <v>3331.834787966598</v>
       </c>
       <c r="Y26" t="n">
-        <v>2520.200090474409</v>
+        <v>2923.548664266251</v>
       </c>
     </row>
     <row r="27">
@@ -6284,49 +6284,49 @@
         <v>587.3962171017887</v>
       </c>
       <c r="C27" t="n">
-        <v>480.939755938431</v>
+        <v>480.9397559384309</v>
       </c>
       <c r="D27" t="n">
-        <v>385.8494670849843</v>
+        <v>385.8494670849842</v>
       </c>
       <c r="E27" t="n">
-        <v>291.729052411938</v>
+        <v>291.7290524119379</v>
       </c>
       <c r="F27" t="n">
-        <v>208.3452140280996</v>
+        <v>208.3452140280995</v>
       </c>
       <c r="G27" t="n">
-        <v>123.9452344427566</v>
+        <v>123.9452344427565</v>
       </c>
       <c r="H27" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="I27" t="n">
-        <v>124.9658902879513</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5553905416681</v>
+        <v>242.2487502022021</v>
       </c>
       <c r="K27" t="n">
-        <v>419.4635098822004</v>
+        <v>398.1568695427344</v>
       </c>
       <c r="L27" t="n">
-        <v>629.1012165924986</v>
+        <v>607.7945762530327</v>
       </c>
       <c r="M27" t="n">
-        <v>873.7385323515923</v>
+        <v>852.4318920121262</v>
       </c>
       <c r="N27" t="n">
-        <v>1124.850669917777</v>
+        <v>1103.544029578311</v>
       </c>
       <c r="O27" t="n">
-        <v>1354.569217052684</v>
+        <v>1333.262576713217</v>
       </c>
       <c r="P27" t="n">
-        <v>1538.938603473307</v>
+        <v>1517.631963133841</v>
       </c>
       <c r="Q27" t="n">
-        <v>1662.184655712404</v>
+        <v>1640.878015372938</v>
       </c>
       <c r="R27" t="n">
         <v>1722.130749565368</v>
@@ -6372,7 +6372,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F28" t="n">
-        <v>452.8717727452486</v>
+        <v>452.8717727452485</v>
       </c>
       <c r="G28" t="n">
         <v>288.1063810275614</v>
@@ -6381,10 +6381,10 @@
         <v>155.54705967105</v>
       </c>
       <c r="I28" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="J28" t="n">
-        <v>148.9516586805755</v>
+        <v>179.2132656784839</v>
       </c>
       <c r="K28" t="n">
         <v>273.2564269178046</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2052.204194721043</v>
+        <v>2497.249093781344</v>
       </c>
       <c r="C29" t="n">
-        <v>1614.061721904467</v>
+        <v>2059.106620964767</v>
       </c>
       <c r="D29" t="n">
-        <v>1195.329406548419</v>
+        <v>1623.196836139212</v>
       </c>
       <c r="E29" t="n">
-        <v>761.5546617067146</v>
+        <v>1189.422091297507</v>
       </c>
       <c r="F29" t="n">
-        <v>761.5546617067146</v>
+        <v>761.5546617067145</v>
       </c>
       <c r="G29" t="n">
         <v>361.9979953786982</v>
       </c>
       <c r="H29" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="I29" t="n">
         <v>160.8841604942899</v>
@@ -6466,49 +6466,49 @@
         <v>314.0410375652105</v>
       </c>
       <c r="K29" t="n">
-        <v>1246.850742164174</v>
+        <v>543.5834944698497</v>
       </c>
       <c r="L29" t="n">
-        <v>1531.618457486866</v>
+        <v>828.3512097925413</v>
       </c>
       <c r="M29" t="n">
-        <v>1848.47740964792</v>
+        <v>1145.210161953596</v>
       </c>
       <c r="N29" t="n">
-        <v>2170.463470920776</v>
+        <v>1467.196223226452</v>
       </c>
       <c r="O29" t="n">
-        <v>2474.505778130992</v>
+        <v>2474.505778130991</v>
       </c>
       <c r="P29" t="n">
-        <v>3562.308727900923</v>
+        <v>3562.308727900921</v>
       </c>
       <c r="Q29" t="n">
-        <v>4303.676006282586</v>
+        <v>4303.676006282584</v>
       </c>
       <c r="R29" t="n">
-        <v>4586.183618855861</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="S29" t="n">
-        <v>4544.487293587403</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="T29" t="n">
-        <v>4332.479766461212</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="U29" t="n">
-        <v>4073.404756982127</v>
+        <v>4518.449656042428</v>
       </c>
       <c r="V29" t="n">
-        <v>3710.787806915953</v>
+        <v>4155.832705976254</v>
       </c>
       <c r="W29" t="n">
-        <v>3305.932352326987</v>
+        <v>3750.977251387287</v>
       </c>
       <c r="X29" t="n">
-        <v>2886.789888906298</v>
+        <v>3331.834787966598</v>
       </c>
       <c r="Y29" t="n">
-        <v>2478.503765205951</v>
+        <v>2923.548664266251</v>
       </c>
     </row>
     <row r="30">
@@ -6521,37 +6521,37 @@
         <v>587.3962171017887</v>
       </c>
       <c r="C30" t="n">
-        <v>480.939755938431</v>
+        <v>480.9397559384309</v>
       </c>
       <c r="D30" t="n">
-        <v>385.8494670849843</v>
+        <v>385.8494670849842</v>
       </c>
       <c r="E30" t="n">
-        <v>291.729052411938</v>
+        <v>291.7290524119379</v>
       </c>
       <c r="F30" t="n">
-        <v>208.3452140280996</v>
+        <v>208.3452140280995</v>
       </c>
       <c r="G30" t="n">
-        <v>123.9452344427566</v>
+        <v>123.9452344427565</v>
       </c>
       <c r="H30" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="I30" t="n">
-        <v>124.9658902879513</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5553905416681</v>
+        <v>263.5553905416684</v>
       </c>
       <c r="K30" t="n">
-        <v>419.4635098822004</v>
+        <v>419.4635098822007</v>
       </c>
       <c r="L30" t="n">
-        <v>629.1012165924986</v>
+        <v>629.1012165924989</v>
       </c>
       <c r="M30" t="n">
-        <v>873.7385323515923</v>
+        <v>873.7385323515924</v>
       </c>
       <c r="N30" t="n">
         <v>1124.850669917777</v>
@@ -6609,7 +6609,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F31" t="n">
-        <v>452.8717727452486</v>
+        <v>452.8717727452485</v>
       </c>
       <c r="G31" t="n">
         <v>288.1063810275614</v>
@@ -6618,28 +6618,28 @@
         <v>155.54705967105</v>
       </c>
       <c r="I31" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="J31" t="n">
         <v>148.9516586805755</v>
       </c>
       <c r="K31" t="n">
-        <v>273.2564269178046</v>
+        <v>242.9948199198961</v>
       </c>
       <c r="L31" t="n">
-        <v>811.8091771449089</v>
+        <v>781.5475701470004</v>
       </c>
       <c r="M31" t="n">
-        <v>1398.177725800752</v>
+        <v>1367.916118802844</v>
       </c>
       <c r="N31" t="n">
-        <v>1964.30417630906</v>
+        <v>1934.042569311152</v>
       </c>
       <c r="O31" t="n">
-        <v>2498.385246422867</v>
+        <v>2468.123639424959</v>
       </c>
       <c r="P31" t="n">
-        <v>2943.791218415738</v>
+        <v>2913.529611417829</v>
       </c>
       <c r="Q31" t="n">
         <v>3011.571465534313</v>
@@ -6688,49 +6688,49 @@
         <v>1189.422091297507</v>
       </c>
       <c r="F32" t="n">
-        <v>761.5546617067146</v>
+        <v>761.5546617067145</v>
       </c>
       <c r="G32" t="n">
         <v>361.9979953786982</v>
       </c>
       <c r="H32" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="I32" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J32" t="n">
-        <v>314.0410375652105</v>
+        <v>749.2957250181283</v>
       </c>
       <c r="K32" t="n">
-        <v>543.5834944698497</v>
+        <v>978.8381819227675</v>
       </c>
       <c r="L32" t="n">
-        <v>1678.663940136675</v>
+        <v>1263.605897245459</v>
       </c>
       <c r="M32" t="n">
-        <v>2813.744385803501</v>
+        <v>2398.686342912285</v>
       </c>
       <c r="N32" t="n">
-        <v>3714.426196465824</v>
+        <v>2720.67240418514</v>
       </c>
       <c r="O32" t="n">
-        <v>4018.46850367604</v>
+        <v>3024.714711395356</v>
       </c>
       <c r="P32" t="n">
-        <v>4277.961578612574</v>
+        <v>3562.308727900921</v>
       </c>
       <c r="Q32" t="n">
-        <v>4472.830071035643</v>
+        <v>4303.676006282584</v>
       </c>
       <c r="R32" t="n">
-        <v>4586.183618855861</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="S32" t="n">
-        <v>4544.487293587403</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="T32" t="n">
-        <v>4544.487293587403</v>
+        <v>4586.183618855859</v>
       </c>
       <c r="U32" t="n">
         <v>4518.449656042428</v>
@@ -6758,49 +6758,49 @@
         <v>587.3962171017887</v>
       </c>
       <c r="C33" t="n">
-        <v>480.939755938431</v>
+        <v>480.9397559384309</v>
       </c>
       <c r="D33" t="n">
-        <v>385.8494670849843</v>
+        <v>385.8494670849842</v>
       </c>
       <c r="E33" t="n">
-        <v>291.729052411938</v>
+        <v>291.7290524119379</v>
       </c>
       <c r="F33" t="n">
-        <v>208.3452140280996</v>
+        <v>208.3452140280995</v>
       </c>
       <c r="G33" t="n">
-        <v>123.9452344427566</v>
+        <v>123.9452344427565</v>
       </c>
       <c r="H33" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="I33" t="n">
         <v>124.9658902879513</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5553905416681</v>
+        <v>216.1850770417445</v>
       </c>
       <c r="K33" t="n">
-        <v>419.4635098822004</v>
+        <v>372.0931963822767</v>
       </c>
       <c r="L33" t="n">
-        <v>629.1012165924986</v>
+        <v>581.730903092575</v>
       </c>
       <c r="M33" t="n">
-        <v>873.7385323515923</v>
+        <v>826.3682188516686</v>
       </c>
       <c r="N33" t="n">
-        <v>1124.850669917777</v>
+        <v>1077.480356417853</v>
       </c>
       <c r="O33" t="n">
-        <v>1354.569217052684</v>
+        <v>1307.19890355276</v>
       </c>
       <c r="P33" t="n">
-        <v>1538.938603473307</v>
+        <v>1491.568289973383</v>
       </c>
       <c r="Q33" t="n">
-        <v>1662.184655712404</v>
+        <v>1614.81434221248</v>
       </c>
       <c r="R33" t="n">
         <v>1722.130749565368</v>
@@ -6846,7 +6846,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F34" t="n">
-        <v>452.8717727452486</v>
+        <v>452.8717727452485</v>
       </c>
       <c r="G34" t="n">
         <v>288.1063810275614</v>
@@ -6855,28 +6855,28 @@
         <v>155.54705967105</v>
       </c>
       <c r="I34" t="n">
-        <v>91.72367237711723</v>
+        <v>91.72367237711718</v>
       </c>
       <c r="J34" t="n">
-        <v>148.9516586805755</v>
+        <v>235.5313438452653</v>
       </c>
       <c r="K34" t="n">
-        <v>273.2564269178046</v>
+        <v>604.3329596557215</v>
       </c>
       <c r="L34" t="n">
-        <v>811.8091771449089</v>
+        <v>1142.885709882826</v>
       </c>
       <c r="M34" t="n">
-        <v>1398.177725800752</v>
+        <v>1269.770391357756</v>
       </c>
       <c r="N34" t="n">
-        <v>1964.30417630906</v>
+        <v>1796.111401444729</v>
       </c>
       <c r="O34" t="n">
-        <v>2498.385246422867</v>
+        <v>2330.192471558535</v>
       </c>
       <c r="P34" t="n">
-        <v>2943.791218415738</v>
+        <v>2775.598443551406</v>
       </c>
       <c r="Q34" t="n">
         <v>3011.571465534313</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2251.395484159472</v>
+        <v>1347.781523421483</v>
       </c>
       <c r="C35" t="n">
-        <v>2013.244784776209</v>
+        <v>909.6390506049063</v>
       </c>
       <c r="D35" t="n">
-        <v>1577.334999950653</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="E35" t="n">
-        <v>1143.560255108948</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F35" t="n">
-        <v>715.6928255181559</v>
+        <v>45.86183618855859</v>
       </c>
       <c r="G35" t="n">
-        <v>316.1361591901397</v>
+        <v>45.86183618855859</v>
       </c>
       <c r="H35" t="n">
-        <v>45.86183618855861</v>
+        <v>45.86183618855859</v>
       </c>
       <c r="I35" t="n">
-        <v>115.0223243057313</v>
+        <v>115.0223243057312</v>
       </c>
       <c r="J35" t="n">
         <v>268.179201376652</v>
@@ -6943,7 +6943,7 @@
         <v>497.7216582812912</v>
       </c>
       <c r="L35" t="n">
-        <v>782.4893736039829</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M35" t="n">
         <v>1099.348325765037</v>
@@ -6964,25 +6964,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S35" t="n">
-        <v>2251.395484159472</v>
+        <v>2251.395484159471</v>
       </c>
       <c r="T35" t="n">
-        <v>2251.395484159472</v>
+        <v>2251.395484159471</v>
       </c>
       <c r="U35" t="n">
-        <v>2251.395484159472</v>
+        <v>2251.395484159471</v>
       </c>
       <c r="V35" t="n">
-        <v>2251.395484159472</v>
+        <v>2251.395484159471</v>
       </c>
       <c r="W35" t="n">
-        <v>2251.395484159472</v>
+        <v>1846.540029570505</v>
       </c>
       <c r="X35" t="n">
-        <v>2251.395484159472</v>
+        <v>1427.397566149815</v>
       </c>
       <c r="Y35" t="n">
-        <v>2251.395484159472</v>
+        <v>1427.397566149815</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C36" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D36" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E36" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F36" t="n">
-        <v>162.483377839541</v>
+        <v>162.4833778395409</v>
       </c>
       <c r="G36" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419793</v>
       </c>
       <c r="H36" t="n">
-        <v>45.86183618855861</v>
+        <v>45.86183618855859</v>
       </c>
       <c r="I36" t="n">
-        <v>79.1040540993927</v>
+        <v>79.10405409939267</v>
       </c>
       <c r="J36" t="n">
-        <v>170.323240853186</v>
+        <v>170.3232408531859</v>
       </c>
       <c r="K36" t="n">
-        <v>326.2313601937183</v>
+        <v>326.2313601937182</v>
       </c>
       <c r="L36" t="n">
-        <v>535.8690669040166</v>
+        <v>535.8690669040164</v>
       </c>
       <c r="M36" t="n">
-        <v>780.5063826631101</v>
+        <v>780.50638266311</v>
       </c>
       <c r="N36" t="n">
         <v>1031.618520229295</v>
@@ -7058,10 +7058,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X36" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y36" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.914698659449</v>
+        <v>456.1502812699979</v>
       </c>
       <c r="C37" t="n">
-        <v>919.3529871426737</v>
+        <v>456.1502812699979</v>
       </c>
       <c r="D37" t="n">
-        <v>753.4749943441964</v>
+        <v>456.1502812699979</v>
       </c>
       <c r="E37" t="n">
-        <v>583.7169905949337</v>
+        <v>286.3922775207351</v>
       </c>
       <c r="F37" t="n">
-        <v>407.0099365566899</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="G37" t="n">
-        <v>242.2445448390028</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="H37" t="n">
         <v>109.6852234824914</v>
       </c>
       <c r="I37" t="n">
-        <v>45.86183618855861</v>
+        <v>45.86183618855859</v>
       </c>
       <c r="J37" t="n">
         <v>103.0898224920169</v>
       </c>
       <c r="K37" t="n">
-        <v>197.1329837313375</v>
+        <v>471.8914383024731</v>
       </c>
       <c r="L37" t="n">
-        <v>735.6857339584418</v>
+        <v>979.6680644215575</v>
       </c>
       <c r="M37" t="n">
-        <v>1011.800836709186</v>
+        <v>1106.552745896488</v>
       </c>
       <c r="N37" t="n">
-        <v>1577.927287217494</v>
+        <v>1230.420393247151</v>
       </c>
       <c r="O37" t="n">
-        <v>2112.0083573313</v>
+        <v>1764.501463360958</v>
       </c>
       <c r="P37" t="n">
         <v>2209.907435353829</v>
       </c>
       <c r="Q37" t="n">
-        <v>2277.687682472404</v>
+        <v>2277.687682472403</v>
       </c>
       <c r="R37" t="n">
         <v>2293.09180942793</v>
       </c>
       <c r="S37" t="n">
-        <v>2148.243333477583</v>
+        <v>2200.500862961482</v>
       </c>
       <c r="T37" t="n">
-        <v>2148.243333477583</v>
+        <v>1958.15019045401</v>
       </c>
       <c r="U37" t="n">
-        <v>2148.243333477583</v>
+        <v>1679.762237884742</v>
       </c>
       <c r="V37" t="n">
-        <v>2028.571147144624</v>
+        <v>1392.806729755173</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.544742730915</v>
+        <v>1120.780325341464</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.152988064328</v>
+        <v>875.3885706748767</v>
       </c>
       <c r="Y37" t="n">
-        <v>1283.733317378436</v>
+        <v>647.968899988985</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>715.6928255181559</v>
+        <v>1781.556268263188</v>
       </c>
       <c r="C38" t="n">
-        <v>715.6928255181559</v>
+        <v>1343.413795446611</v>
       </c>
       <c r="D38" t="n">
-        <v>715.6928255181559</v>
+        <v>907.5040106210556</v>
       </c>
       <c r="E38" t="n">
-        <v>715.6928255181559</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F38" t="n">
-        <v>715.6928255181559</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G38" t="n">
-        <v>316.1361591901397</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H38" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I38" t="n">
-        <v>115.0223243057313</v>
+        <v>115.0223243057315</v>
       </c>
       <c r="J38" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766522</v>
       </c>
       <c r="K38" t="n">
-        <v>497.7216582812912</v>
+        <v>497.7216582812914</v>
       </c>
       <c r="L38" t="n">
-        <v>782.4893736039835</v>
+        <v>782.489373603983</v>
       </c>
       <c r="M38" t="n">
         <v>1099.348325765038</v>
       </c>
       <c r="N38" t="n">
-        <v>1421.334387037894</v>
+        <v>1421.334387037893</v>
       </c>
       <c r="O38" t="n">
-        <v>1725.37669424811</v>
+        <v>1725.376694248109</v>
       </c>
       <c r="P38" t="n">
-        <v>1984.869769184645</v>
+        <v>1984.869769184644</v>
       </c>
       <c r="Q38" t="n">
-        <v>2179.738261607713</v>
+        <v>2179.738261607712</v>
       </c>
       <c r="R38" t="n">
         <v>2293.09180942793</v>
@@ -7204,22 +7204,22 @@
         <v>2251.395484159472</v>
       </c>
       <c r="T38" t="n">
-        <v>2039.387957033282</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U38" t="n">
-        <v>1780.312947554197</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="V38" t="n">
-        <v>1417.695997488023</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="W38" t="n">
-        <v>1012.840542899056</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="X38" t="n">
-        <v>715.6928255181559</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="Y38" t="n">
-        <v>715.6928255181559</v>
+        <v>2207.855838748096</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C39" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D39" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E39" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F39" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G39" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H39" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I39" t="n">
-        <v>79.1040540993927</v>
+        <v>79.10405409939268</v>
       </c>
       <c r="J39" t="n">
-        <v>170.323240853186</v>
+        <v>170.3232408531859</v>
       </c>
       <c r="K39" t="n">
-        <v>326.2313601937183</v>
+        <v>326.2313601937182</v>
       </c>
       <c r="L39" t="n">
-        <v>535.8690669040166</v>
+        <v>535.8690669040164</v>
       </c>
       <c r="M39" t="n">
-        <v>780.5063826631101</v>
+        <v>780.50638266311</v>
       </c>
       <c r="N39" t="n">
         <v>1031.618520229295</v>
@@ -7274,7 +7274,7 @@
         <v>1445.706453784825</v>
       </c>
       <c r="Q39" t="n">
-        <v>1616.322819523846</v>
+        <v>1568.952506023922</v>
       </c>
       <c r="R39" t="n">
         <v>1676.26891337681</v>
@@ -7295,10 +7295,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X39" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y39" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>403.8927517860992</v>
+        <v>730.7665982913176</v>
       </c>
       <c r="C40" t="n">
-        <v>403.8927517860992</v>
+        <v>558.2048867745425</v>
       </c>
       <c r="D40" t="n">
-        <v>403.8927517860992</v>
+        <v>392.3268939760652</v>
       </c>
       <c r="E40" t="n">
-        <v>403.8927517860992</v>
+        <v>222.5688902268024</v>
       </c>
       <c r="F40" t="n">
-        <v>403.8927517860992</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G40" t="n">
-        <v>242.2445448390028</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H40" t="n">
-        <v>109.6852234824914</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I40" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J40" t="n">
         <v>103.0898224920169</v>
       </c>
       <c r="K40" t="n">
-        <v>197.1329837313375</v>
+        <v>471.8914383024731</v>
       </c>
       <c r="L40" t="n">
-        <v>735.6857339584418</v>
+        <v>979.6680644215579</v>
       </c>
       <c r="M40" t="n">
-        <v>862.5704154333719</v>
+        <v>1106.552745896488</v>
       </c>
       <c r="N40" t="n">
-        <v>1062.22761838282</v>
+        <v>1230.420393247152</v>
       </c>
       <c r="O40" t="n">
-        <v>1596.308688496626</v>
+        <v>1764.501463360958</v>
       </c>
       <c r="P40" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q40" t="n">
         <v>2277.687682472404</v>
@@ -7359,25 +7359,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S40" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T40" t="n">
-        <v>1905.892660970112</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U40" t="n">
-        <v>1627.504708400844</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V40" t="n">
-        <v>1340.549200271274</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W40" t="n">
-        <v>1068.522795857566</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X40" t="n">
-        <v>823.1310411909781</v>
+        <v>967.9795171413245</v>
       </c>
       <c r="Y40" t="n">
-        <v>595.7113705050863</v>
+        <v>740.5598464554328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.1949218983882</v>
+        <v>1153.835298334732</v>
       </c>
       <c r="C41" t="n">
-        <v>45.86183618855861</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="D41" t="n">
-        <v>45.86183618855861</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="E41" t="n">
-        <v>45.86183618855861</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="F41" t="n">
-        <v>45.86183618855861</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="G41" t="n">
-        <v>45.86183618855861</v>
+        <v>316.1361591901396</v>
       </c>
       <c r="H41" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I41" t="n">
         <v>115.0223243057313</v>
       </c>
       <c r="J41" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766519</v>
       </c>
       <c r="K41" t="n">
-        <v>497.7216582812912</v>
+        <v>497.7216582812911</v>
       </c>
       <c r="L41" t="n">
-        <v>782.4893736039829</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M41" t="n">
         <v>1099.348325765037</v>
@@ -7438,25 +7438,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S41" t="n">
-        <v>2251.395484159472</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T41" t="n">
-        <v>2251.395484159472</v>
+        <v>2081.08428230174</v>
       </c>
       <c r="U41" t="n">
-        <v>2251.395484159472</v>
+        <v>1981.263885455768</v>
       </c>
       <c r="V41" t="n">
-        <v>1888.778534093299</v>
+        <v>1981.263885455768</v>
       </c>
       <c r="W41" t="n">
-        <v>1483.923079504332</v>
+        <v>1981.263885455768</v>
       </c>
       <c r="X41" t="n">
-        <v>1064.780616083643</v>
+        <v>1562.121422035079</v>
       </c>
       <c r="Y41" t="n">
-        <v>656.494492383296</v>
+        <v>1153.835298334732</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C42" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D42" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E42" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F42" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G42" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H42" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I42" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J42" t="n">
-        <v>170.323240853186</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K42" t="n">
-        <v>326.2313601937183</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L42" t="n">
-        <v>583.2393804039401</v>
+        <v>561.932740064474</v>
       </c>
       <c r="M42" t="n">
-        <v>827.8766961630338</v>
+        <v>806.5700558235675</v>
       </c>
       <c r="N42" t="n">
-        <v>1078.988833729219</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O42" t="n">
-        <v>1308.707380864125</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P42" t="n">
-        <v>1493.076767284748</v>
+        <v>1471.770126945282</v>
       </c>
       <c r="Q42" t="n">
-        <v>1616.322819523846</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R42" t="n">
         <v>1676.26891337681</v>
@@ -7532,10 +7532,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X42" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y42" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1028.091311365516</v>
+        <v>895.5319900090046</v>
       </c>
       <c r="C43" t="n">
-        <v>855.529599848741</v>
+        <v>722.9702784922296</v>
       </c>
       <c r="D43" t="n">
-        <v>689.6516070502637</v>
+        <v>557.0922856937523</v>
       </c>
       <c r="E43" t="n">
-        <v>519.893603301001</v>
+        <v>387.3342819444895</v>
       </c>
       <c r="F43" t="n">
-        <v>343.1865492627572</v>
+        <v>210.6272279062457</v>
       </c>
       <c r="G43" t="n">
-        <v>178.4211575450701</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H43" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I43" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J43" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K43" t="n">
-        <v>558.4711234671629</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L43" t="n">
-        <v>718.3266421690849</v>
+        <v>444.2606138757724</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.866865002498</v>
+        <v>1011.800836709185</v>
       </c>
       <c r="N43" t="n">
-        <v>1409.734512353162</v>
+        <v>1577.927287217494</v>
       </c>
       <c r="O43" t="n">
-        <v>1943.815582466968</v>
+        <v>2112.0083573313</v>
       </c>
       <c r="P43" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q43" t="n">
         <v>2277.687682472404</v>
@@ -7596,25 +7596,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S43" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T43" t="n">
-        <v>2148.243333477583</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U43" t="n">
-        <v>1869.855380908315</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V43" t="n">
-        <v>1692.721355436983</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W43" t="n">
-        <v>1692.721355436983</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X43" t="n">
-        <v>1447.329600770395</v>
+        <v>1087.350608727992</v>
       </c>
       <c r="Y43" t="n">
-        <v>1219.909930084503</v>
+        <v>1087.350608727992</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1051.106199056135</v>
+        <v>1753.245505000412</v>
       </c>
       <c r="C44" t="n">
-        <v>612.9637262395581</v>
+        <v>1315.103032183835</v>
       </c>
       <c r="D44" t="n">
-        <v>479.6365810302634</v>
+        <v>879.1932473582797</v>
       </c>
       <c r="E44" t="n">
-        <v>45.86183618855861</v>
+        <v>445.4185025165748</v>
       </c>
       <c r="F44" t="n">
-        <v>45.86183618855861</v>
+        <v>445.4185025165748</v>
       </c>
       <c r="G44" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H44" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I44" t="n">
         <v>115.0223243057312</v>
       </c>
       <c r="J44" t="n">
-        <v>268.1792013766522</v>
+        <v>268.179201376652</v>
       </c>
       <c r="K44" t="n">
-        <v>497.7216582812914</v>
+        <v>497.7216582812911</v>
       </c>
       <c r="L44" t="n">
-        <v>782.489373603983</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M44" t="n">
         <v>1099.348325765037</v>
@@ -7675,25 +7675,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S44" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T44" t="n">
-        <v>2081.084282301741</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U44" t="n">
-        <v>1822.009272822655</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="V44" t="n">
-        <v>1459.392322756481</v>
+        <v>1753.245505000412</v>
       </c>
       <c r="W44" t="n">
-        <v>1459.392322756481</v>
+        <v>1753.245505000412</v>
       </c>
       <c r="X44" t="n">
-        <v>1459.392322756481</v>
+        <v>1753.245505000412</v>
       </c>
       <c r="Y44" t="n">
-        <v>1051.106199056135</v>
+        <v>1753.245505000412</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C45" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D45" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E45" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F45" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G45" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H45" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I45" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J45" t="n">
-        <v>217.6935543531096</v>
+        <v>217.6935543531099</v>
       </c>
       <c r="K45" t="n">
-        <v>373.6016736936418</v>
+        <v>373.6016736936421</v>
       </c>
       <c r="L45" t="n">
-        <v>583.2393804039401</v>
+        <v>583.2393804039403</v>
       </c>
       <c r="M45" t="n">
-        <v>827.8766961630338</v>
+        <v>827.8766961630339</v>
       </c>
       <c r="N45" t="n">
         <v>1078.988833729219</v>
@@ -7769,10 +7769,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X45" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y45" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1028.091311365516</v>
+        <v>591.5133103940217</v>
       </c>
       <c r="C46" t="n">
-        <v>855.529599848741</v>
+        <v>418.9515988772466</v>
       </c>
       <c r="D46" t="n">
-        <v>689.6516070502637</v>
+        <v>418.9515988772466</v>
       </c>
       <c r="E46" t="n">
-        <v>519.893603301001</v>
+        <v>418.9515988772466</v>
       </c>
       <c r="F46" t="n">
-        <v>343.1865492627572</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="G46" t="n">
-        <v>178.4211575450701</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="H46" t="n">
-        <v>45.86183618855861</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="I46" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J46" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K46" t="n">
-        <v>283.7126688960274</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L46" t="n">
-        <v>444.2606138757728</v>
+        <v>735.6857339584417</v>
       </c>
       <c r="M46" t="n">
-        <v>1011.800836709186</v>
+        <v>1303.225956791854</v>
       </c>
       <c r="N46" t="n">
-        <v>1577.927287217494</v>
+        <v>1869.352407300163</v>
       </c>
       <c r="O46" t="n">
         <v>2112.0083573313</v>
@@ -7833,25 +7833,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S46" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T46" t="n">
-        <v>1905.892660970112</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U46" t="n">
-        <v>1627.504708400844</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V46" t="n">
-        <v>1340.549200271274</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W46" t="n">
-        <v>1340.549200271274</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X46" t="n">
-        <v>1340.549200271274</v>
+        <v>967.9795171413245</v>
       </c>
       <c r="Y46" t="n">
-        <v>1219.909930084503</v>
+        <v>740.5598464554328</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.84880151507423</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>135.4754192815556</v>
       </c>
       <c r="P13" t="n">
-        <v>150.7377992684987</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.52185892875377</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>128.0654158437293</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>445.1066074328108</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>150.7377992684983</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>21.52185892875377</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>445.1066074328108</v>
+        <v>445.1066074328107</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>129.5395243869821</v>
       </c>
       <c r="P19" t="n">
-        <v>39.91176792199872</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>47.84880151507434</v>
+        <v>47.84880151507471</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>445.1066074328108</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>112.8030358567862</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>319.9300705680021</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>150.8233525200803</v>
+        <v>590.4745519674698</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>21.52185892875377</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>30.56727979586714</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9810,13 +9810,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>358.0671926854179</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>270.7197578196028</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>264.6183263804273</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>47.84880151507429</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>21.52185892875377</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.56727979586714</v>
       </c>
       <c r="K28" t="n">
-        <v>30.56727979586708</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>710.3709572669945</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>710.3709572669929</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>47.84880151507429</v>
+        <v>21.52185892875389</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>30.56727979586708</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>30.56727979586731</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>858.9017478223574</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>826.4863570765365</v>
+        <v>826.4863570765363</v>
       </c>
       <c r="N32" t="n">
-        <v>584.5411609994621</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>280.9100419889201</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>47.84880151507429</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>47.84880151507468</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>30.56727979586708</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>406.5387502386957</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.84880151507423</v>
+        <v>47.84880151507468</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>391.3472299595365</v>
       </c>
       <c r="M37" t="n">
-        <v>150.7377992684986</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>47.84880151507423</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.84880151507468</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>391.3472299595369</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>76.55510666543853</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>21.52185892875377</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>39.91176792199872</v>
+        <v>128.065415843729</v>
       </c>
       <c r="M43" t="n">
         <v>445.1066074328107</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>47.84880151507434</v>
+        <v>21.52185892875389</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>40.6111884046486</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>445.1066074328108</v>
+        <v>445.1066074328107</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>129.5395243869821</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>156.7124936832064</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>186.9089816019147</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.8874518549281</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.265133351461401</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.2337281429463</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4167054711054</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.561099664736</v>
       </c>
       <c r="H14" t="n">
-        <v>100.7566817524408</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.8874518549281</v>
+        <v>166.7832028976657</v>
       </c>
       <c r="U14" t="n">
         <v>256.4842593842947</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>147.563649472323</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>67.71878160625745</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.2337281429463</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6040730435755</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.5715797715652</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.8874518549281</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>311.181934981905</v>
+        <v>120.0789358280293</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.2337281429463</v>
@@ -23943,16 +23943,16 @@
         <v>143.3999911908438</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>130.9039350272508</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>68.4502867724548</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>289.947813954718</v>
+        <v>352.4568507074736</v>
       </c>
       <c r="H20" t="n">
         <v>267.5715797715652</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.8874518549281</v>
@@ -24031,7 +24031,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>15.98590397883027</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>12.14469313755293</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>173.0228702981341</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>142.8308286696295</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>3.753988389188009</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>189.4276361989976</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>17.00569477481326</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>189.4276361989976</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T32" t="n">
         <v>209.8874518549281</v>
       </c>
       <c r="U32" t="n">
-        <v>230.7069982147694</v>
+        <v>189.4276361989976</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>343.2166924790097</v>
       </c>
       <c r="C35" t="n">
-        <v>197.99185569898</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>51.73495418906096</v>
       </c>
       <c r="T37" t="n">
-        <v>239.9271657823968</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6040730435755</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>165.6104885786438</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>120.774798579391</v>
+        <v>371.84678982922</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.2051168493232</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.08601292288489</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>251.2712932356796</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25642,10 +25642,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4842593842947</v>
+        <v>157.6620665067824</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I43" t="n">
         <v>63.18515342099344</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T43" t="n">
-        <v>239.9271657823968</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>108.7232678316547</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>118.1773806708006</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>299.5568132200981</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.5715797715652</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>122.3065605823371</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>42.34436183100027</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.7125964941297</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>518708.3261087208</v>
+        <v>518708.3261087206</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>518708.3261087208</v>
+        <v>518708.3261087207</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>518708.3261087208</v>
+        <v>518708.3261087207</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>518708.3261087209</v>
+        <v>518708.3261087207</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>270307.3232165359</v>
+        <v>270307.323216536</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>484130.7854230573</v>
+      </c>
+      <c r="C2" t="n">
         <v>484130.7854230572</v>
       </c>
-      <c r="C2" t="n">
-        <v>484130.7854230571</v>
-      </c>
       <c r="D2" t="n">
-        <v>484130.7854230572</v>
+        <v>484130.7854230573</v>
       </c>
       <c r="E2" t="n">
-        <v>284565.0476912947</v>
+        <v>284565.0476912946</v>
       </c>
       <c r="F2" t="n">
         <v>284565.0476912946</v>
@@ -26331,25 +26331,25 @@
         <v>284565.0476912946</v>
       </c>
       <c r="H2" t="n">
-        <v>284565.0476912947</v>
+        <v>284565.0476912946</v>
       </c>
       <c r="I2" t="n">
-        <v>463495.3015399962</v>
+        <v>463495.3015399959</v>
       </c>
       <c r="J2" t="n">
         <v>463495.3015399959</v>
       </c>
       <c r="K2" t="n">
-        <v>463495.3015399961</v>
+        <v>463495.3015399959</v>
       </c>
       <c r="L2" t="n">
-        <v>463495.3015399961</v>
+        <v>463495.3015399958</v>
       </c>
       <c r="M2" t="n">
-        <v>284565.0476912947</v>
+        <v>284565.0476912946</v>
       </c>
       <c r="N2" t="n">
-        <v>284565.0476912947</v>
+        <v>284565.0476912946</v>
       </c>
       <c r="O2" t="n">
         <v>284565.0476912947</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>152445.3167637212</v>
+        <v>152445.3167637211</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>16963.5527759019</v>
@@ -26438,13 +26438,13 @@
         <v>16963.5527759019</v>
       </c>
       <c r="I4" t="n">
-        <v>106074.1615805067</v>
+        <v>106074.1615805066</v>
       </c>
       <c r="J4" t="n">
-        <v>106074.1615805067</v>
+        <v>106074.1615805066</v>
       </c>
       <c r="K4" t="n">
-        <v>106074.1615805067</v>
+        <v>106074.1615805066</v>
       </c>
       <c r="L4" t="n">
         <v>106074.1615805066</v>
@@ -26453,7 +26453,7 @@
         <v>16963.5527759019</v>
       </c>
       <c r="N4" t="n">
-        <v>16963.55277590189</v>
+        <v>16963.5527759019</v>
       </c>
       <c r="O4" t="n">
         <v>16963.5527759019</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="F5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="G5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="H5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="I5" t="n">
-        <v>79594.32699687549</v>
+        <v>79594.32699687546</v>
       </c>
       <c r="J5" t="n">
-        <v>79594.32699687549</v>
+        <v>79594.32699687546</v>
       </c>
       <c r="K5" t="n">
-        <v>79594.32699687549</v>
+        <v>79594.32699687546</v>
       </c>
       <c r="L5" t="n">
-        <v>79594.32699687549</v>
+        <v>79594.32699687546</v>
       </c>
       <c r="M5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357093</v>
       </c>
       <c r="N5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="O5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="P5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="C6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937227</v>
       </c>
       <c r="D6" t="n">
-        <v>151772.4691112244</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="E6" t="n">
-        <v>-312575.4083116087</v>
+        <v>-313146.6818878448</v>
       </c>
       <c r="F6" t="n">
-        <v>222862.1634218218</v>
+        <v>222290.8898455857</v>
       </c>
       <c r="G6" t="n">
-        <v>222862.1634218218</v>
+        <v>222290.8898455857</v>
       </c>
       <c r="H6" t="n">
-        <v>222862.1634218218</v>
+        <v>222290.8898455857</v>
       </c>
       <c r="I6" t="n">
-        <v>125381.4961988929</v>
+        <v>125293.8179033289</v>
       </c>
       <c r="J6" t="n">
-        <v>277826.8129626138</v>
+        <v>277739.13466705</v>
       </c>
       <c r="K6" t="n">
-        <v>277826.8129626139</v>
+        <v>277739.13466705</v>
       </c>
       <c r="L6" t="n">
-        <v>277826.8129626139</v>
+        <v>277739.1346670499</v>
       </c>
       <c r="M6" t="n">
-        <v>222862.1634218218</v>
+        <v>222290.8898455857</v>
       </c>
       <c r="N6" t="n">
-        <v>222862.1634218218</v>
+        <v>222290.8898455857</v>
       </c>
       <c r="O6" t="n">
-        <v>222862.1634218218</v>
+        <v>222290.8898455859</v>
       </c>
       <c r="P6" t="n">
-        <v>222862.1634218218</v>
+        <v>222290.8898455857</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="F4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="G4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="H4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="I4" t="n">
         <v>1146.545904713965</v>
@@ -26822,16 +26822,16 @@
         <v>1146.545904713965</v>
       </c>
       <c r="M4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569824</v>
       </c>
       <c r="N4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="O4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="P4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,10 +31992,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H14" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J14" t="n">
         <v>154.7039162332532</v>
@@ -32019,19 +32019,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R14" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S14" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T14" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H15" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I15" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J15" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K15" t="n">
         <v>157.4829488288205</v>
@@ -32101,13 +32101,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R15" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S15" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T15" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U15" t="n">
         <v>0.06416177940713008</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H16" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I16" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J16" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K16" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L16" t="n">
         <v>121.5584529890336</v>
@@ -32174,10 +32174,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P16" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R16" t="n">
         <v>36.76336727918306</v>
@@ -32229,10 +32229,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H17" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I17" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J17" t="n">
         <v>154.7039162332532</v>
@@ -32256,19 +32256,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R17" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S17" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T17" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H18" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I18" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J18" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K18" t="n">
         <v>157.4829488288205</v>
@@ -32338,13 +32338,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R18" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S18" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T18" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U18" t="n">
         <v>0.06416177940713008</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H19" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I19" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J19" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K19" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L19" t="n">
         <v>121.5584529890336</v>
@@ -32411,10 +32411,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P19" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R19" t="n">
         <v>36.76336727918306</v>
@@ -32466,10 +32466,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H20" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I20" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J20" t="n">
         <v>154.7039162332532</v>
@@ -32493,19 +32493,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q20" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R20" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S20" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T20" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H21" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I21" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J21" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K21" t="n">
         <v>157.4829488288205</v>
@@ -32575,13 +32575,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R21" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S21" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T21" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U21" t="n">
         <v>0.06416177940713008</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H22" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I22" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J22" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K22" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L22" t="n">
         <v>121.5584529890336</v>
@@ -32648,10 +32648,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P22" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R22" t="n">
         <v>36.76336727918306</v>
@@ -32703,10 +32703,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H23" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I23" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J23" t="n">
         <v>154.7039162332532</v>
@@ -32730,19 +32730,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q23" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R23" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S23" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T23" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H24" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I24" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J24" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K24" t="n">
         <v>157.4829488288205</v>
@@ -32812,13 +32812,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R24" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S24" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T24" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U24" t="n">
         <v>0.06416177940713008</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H25" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I25" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J25" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K25" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L25" t="n">
         <v>121.5584529890336</v>
@@ -32885,10 +32885,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P25" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R25" t="n">
         <v>36.76336727918306</v>
@@ -32940,10 +32940,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H26" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I26" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J26" t="n">
         <v>154.7039162332532</v>
@@ -32967,19 +32967,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q26" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R26" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S26" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T26" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H27" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I27" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J27" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K27" t="n">
         <v>157.4829488288205</v>
@@ -33049,13 +33049,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R27" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S27" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T27" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U27" t="n">
         <v>0.06416177940713008</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H28" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I28" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J28" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K28" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L28" t="n">
         <v>121.5584529890336</v>
@@ -33122,10 +33122,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P28" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R28" t="n">
         <v>36.76336727918306</v>
@@ -33177,10 +33177,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H29" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I29" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J29" t="n">
         <v>154.7039162332532</v>
@@ -33204,19 +33204,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q29" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R29" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S29" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T29" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H30" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I30" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J30" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K30" t="n">
         <v>157.4829488288205</v>
@@ -33286,13 +33286,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R30" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S30" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T30" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U30" t="n">
         <v>0.06416177940713008</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H31" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I31" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J31" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K31" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L31" t="n">
         <v>121.5584529890336</v>
@@ -33359,10 +33359,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P31" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R31" t="n">
         <v>36.76336727918306</v>
@@ -33414,10 +33414,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H32" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I32" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J32" t="n">
         <v>154.7039162332532</v>
@@ -33441,19 +33441,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R32" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S32" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T32" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H33" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I33" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J33" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K33" t="n">
         <v>157.4829488288205</v>
@@ -33523,13 +33523,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R33" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S33" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T33" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U33" t="n">
         <v>0.06416177940713008</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H34" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I34" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J34" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K34" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L34" t="n">
         <v>121.5584529890336</v>
@@ -33596,10 +33596,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P34" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R34" t="n">
         <v>36.76336727918306</v>
@@ -33651,10 +33651,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H35" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I35" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J35" t="n">
         <v>154.7039162332532</v>
@@ -33678,19 +33678,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R35" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S35" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T35" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H36" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I36" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J36" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K36" t="n">
         <v>157.4829488288205</v>
@@ -33760,13 +33760,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R36" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S36" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T36" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U36" t="n">
         <v>0.06416177940713008</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H37" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I37" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J37" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K37" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L37" t="n">
         <v>121.5584529890336</v>
@@ -33833,10 +33833,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P37" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R37" t="n">
         <v>36.76336727918306</v>
@@ -33888,10 +33888,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H38" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I38" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J38" t="n">
         <v>154.7039162332532</v>
@@ -33915,19 +33915,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q38" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R38" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S38" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T38" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H39" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I39" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J39" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K39" t="n">
         <v>157.4829488288205</v>
@@ -33997,13 +33997,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R39" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S39" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T39" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U39" t="n">
         <v>0.06416177940713008</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H40" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I40" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J40" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K40" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L40" t="n">
         <v>121.5584529890336</v>
@@ -34070,10 +34070,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P40" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R40" t="n">
         <v>36.76336727918306</v>
@@ -34125,10 +34125,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H41" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J41" t="n">
         <v>154.7039162332532</v>
@@ -34152,19 +34152,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R41" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S41" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T41" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H42" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I42" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J42" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K42" t="n">
         <v>157.4829488288205</v>
@@ -34234,13 +34234,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R42" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S42" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T42" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U42" t="n">
         <v>0.06416177940713008</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H43" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I43" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J43" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K43" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L43" t="n">
         <v>121.5584529890336</v>
@@ -34307,10 +34307,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P43" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R43" t="n">
         <v>36.76336727918306</v>
@@ -34362,10 +34362,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H44" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J44" t="n">
         <v>154.7039162332532</v>
@@ -34389,19 +34389,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R44" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S44" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T44" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H45" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I45" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J45" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K45" t="n">
         <v>157.4829488288205</v>
@@ -34471,13 +34471,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R45" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S45" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T45" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U45" t="n">
         <v>0.06416177940713008</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H46" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I46" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J46" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K46" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L46" t="n">
         <v>121.5584529890336</v>
@@ -34544,10 +34544,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P46" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R46" t="n">
         <v>36.76336727918306</v>
@@ -35409,10 +35409,10 @@
         <v>69.85907890623503</v>
       </c>
       <c r="J11" t="n">
-        <v>154.7039162332532</v>
+        <v>154.703916233253</v>
       </c>
       <c r="K11" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804438</v>
       </c>
       <c r="L11" t="n">
         <v>287.6441568916078</v>
@@ -35488,7 +35488,7 @@
         <v>33.5779978897314</v>
       </c>
       <c r="J12" t="n">
-        <v>139.9893941956736</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K12" t="n">
         <v>157.4829488288205</v>
@@ -35500,10 +35500,10 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N12" t="n">
-        <v>253.6486238042271</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O12" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P12" t="n">
         <v>186.2317034551752</v>
@@ -35512,7 +35512,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R12" t="n">
-        <v>60.55160995248889</v>
+        <v>108.4004114675631</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.80604677116998</v>
+        <v>145.2602742102507</v>
       </c>
       <c r="K13" t="n">
-        <v>94.99309216092996</v>
+        <v>372.5268846570265</v>
       </c>
       <c r="L13" t="n">
         <v>543.992676997075</v>
       </c>
       <c r="M13" t="n">
-        <v>128.1663449241718</v>
+        <v>128.1663449241719</v>
       </c>
       <c r="N13" t="n">
-        <v>571.8448995033419</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O13" t="n">
-        <v>539.4758283977842</v>
+        <v>251.0429151280455</v>
       </c>
       <c r="P13" t="n">
-        <v>249.625756867013</v>
+        <v>449.9050222150211</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.46489607936837</v>
+        <v>238.3565878615218</v>
       </c>
       <c r="R13" t="n">
         <v>15.55972419750123</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J14" t="n">
-        <v>154.7039162332532</v>
+        <v>154.7039162332533</v>
       </c>
       <c r="K14" t="n">
         <v>231.8610675804437</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6441568916077</v>
+        <v>287.644156891608</v>
       </c>
       <c r="M14" t="n">
-        <v>320.0595476374285</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N14" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O14" t="n">
         <v>307.1134416264808</v>
@@ -35670,7 +35670,7 @@
         <v>196.8368610334021</v>
       </c>
       <c r="R14" t="n">
-        <v>114.4985331517355</v>
+        <v>114.498533151735</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J15" t="n">
-        <v>139.9893941956736</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K15" t="n">
         <v>157.4829488288205</v>
@@ -35734,10 +35734,10 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M15" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N15" t="n">
-        <v>253.6486238042271</v>
+        <v>275.1704827329809</v>
       </c>
       <c r="O15" t="n">
         <v>232.0389364999055</v>
@@ -35807,13 +35807,13 @@
         <v>57.80604677116998</v>
       </c>
       <c r="K16" t="n">
-        <v>223.0585080046592</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L16" t="n">
-        <v>121.5584529890336</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M16" t="n">
-        <v>573.2729523569826</v>
+        <v>128.1663449241718</v>
       </c>
       <c r="N16" t="n">
         <v>571.844899503342</v>
@@ -35822,7 +35822,7 @@
         <v>539.4758283977842</v>
       </c>
       <c r="P16" t="n">
-        <v>98.88795759851428</v>
+        <v>249.6257568670126</v>
       </c>
       <c r="Q16" t="n">
         <v>68.46489607936837</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J17" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K17" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L17" t="n">
         <v>287.6441568916078</v>
@@ -35898,13 +35898,13 @@
         <v>325.2384457301573</v>
       </c>
       <c r="O17" t="n">
-        <v>307.1134416264811</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P17" t="n">
-        <v>262.114217107611</v>
+        <v>262.1142171076112</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.8368610334023</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R17" t="n">
         <v>114.498533151735</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J18" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K18" t="n">
         <v>157.4829488288205</v>
@@ -35971,7 +35971,7 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M18" t="n">
-        <v>294.9572012717346</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N18" t="n">
         <v>253.6486238042271</v>
@@ -35986,7 +35986,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R18" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124266</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K19" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L19" t="n">
-        <v>121.5584529890336</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M19" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="N19" t="n">
-        <v>125.1188357077415</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O19" t="n">
-        <v>539.4758283977842</v>
+        <v>245.1070202334718</v>
       </c>
       <c r="P19" t="n">
-        <v>138.799725520513</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R19" t="n">
         <v>15.55972419750123</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J20" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K20" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L20" t="n">
         <v>287.6441568916078</v>
       </c>
       <c r="M20" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N20" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O20" t="n">
         <v>307.1134416264808</v>
@@ -36141,10 +36141,10 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q20" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334023</v>
       </c>
       <c r="R20" t="n">
-        <v>114.4985331517355</v>
+        <v>114.498533151735</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>33.5779978897314</v>
       </c>
       <c r="J21" t="n">
-        <v>139.9893941956736</v>
+        <v>139.9893941956739</v>
       </c>
       <c r="K21" t="n">
         <v>157.4829488288205</v>
@@ -36208,10 +36208,10 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M21" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6486238042271</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O21" t="n">
         <v>232.0389364999055</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K22" t="n">
         <v>372.5268846570265</v>
       </c>
       <c r="L22" t="n">
-        <v>121.5584529890336</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M22" t="n">
-        <v>573.2729523569826</v>
+        <v>128.1663449241719</v>
       </c>
       <c r="N22" t="n">
         <v>125.1188357077415</v>
       </c>
       <c r="O22" t="n">
-        <v>228.3705317032761</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P22" t="n">
-        <v>449.9050222150211</v>
+        <v>418.8180281665163</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R22" t="n">
         <v>15.55972419750123</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J23" t="n">
-        <v>594.355115680645</v>
+        <v>154.7039162332532</v>
       </c>
       <c r="K23" t="n">
         <v>1074.639140265472</v>
       </c>
       <c r="L23" t="n">
-        <v>287.644156891608</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M23" t="n">
         <v>320.0595476374288</v>
       </c>
       <c r="N23" t="n">
-        <v>325.2384457301578</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O23" t="n">
-        <v>457.9367941465612</v>
+        <v>897.5879935939506</v>
       </c>
       <c r="P23" t="n">
         <v>1098.790858353466</v>
       </c>
       <c r="Q23" t="n">
-        <v>196.8368610334019</v>
+        <v>196.8368610334028</v>
       </c>
       <c r="R23" t="n">
         <v>114.4985331517355</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>33.57799788973141</v>
+        <v>59.90494047605222</v>
       </c>
       <c r="J24" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K24" t="n">
         <v>157.4829488288205</v>
       </c>
       <c r="L24" t="n">
-        <v>259.6040608184059</v>
+        <v>211.7552593033316</v>
       </c>
       <c r="M24" t="n">
         <v>247.1083997566602</v>
       </c>
       <c r="N24" t="n">
-        <v>253.6486238042271</v>
+        <v>253.6486238042269</v>
       </c>
       <c r="O24" t="n">
         <v>232.0389364999055</v>
@@ -36460,7 +36460,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R24" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124266</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K25" t="n">
-        <v>372.5268846570265</v>
+        <v>125.5603719567971</v>
       </c>
       <c r="L25" t="n">
         <v>543.992676997075</v>
@@ -36527,16 +36527,16 @@
         <v>592.2914632887305</v>
       </c>
       <c r="N25" t="n">
-        <v>571.8448995033423</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O25" t="n">
-        <v>473.6346885319076</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P25" t="n">
-        <v>98.88795759851428</v>
+        <v>449.9050222150213</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R25" t="n">
         <v>15.55972419750123</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J26" t="n">
         <v>594.355115680645</v>
       </c>
       <c r="K26" t="n">
-        <v>231.8610675804437</v>
+        <v>1074.639140265472</v>
       </c>
       <c r="L26" t="n">
-        <v>287.6441568916078</v>
+        <v>287.644156891608</v>
       </c>
       <c r="M26" t="n">
         <v>320.0595476374288</v>
       </c>
       <c r="N26" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301578</v>
       </c>
       <c r="O26" t="n">
-        <v>577.8331994460837</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P26" t="n">
-        <v>1098.790858353466</v>
+        <v>526.7325434880381</v>
       </c>
       <c r="Q26" t="n">
         <v>748.8558367491542</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>33.57799788973141</v>
+        <v>59.90494047605222</v>
       </c>
       <c r="J27" t="n">
-        <v>139.9893941956736</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K27" t="n">
         <v>157.4829488288205</v>
@@ -36685,7 +36685,7 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N27" t="n">
-        <v>253.6486238042271</v>
+        <v>253.6486238042269</v>
       </c>
       <c r="O27" t="n">
         <v>232.0389364999055</v>
@@ -36697,7 +36697,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R27" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124266</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>57.80604677116999</v>
+        <v>88.37332656703711</v>
       </c>
       <c r="K28" t="n">
-        <v>125.560371956797</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L28" t="n">
         <v>543.992676997075</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J29" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K29" t="n">
-        <v>942.2320248474382</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L29" t="n">
         <v>287.6441568916077</v>
@@ -36843,10 +36843,10 @@
         <v>320.0595476374288</v>
       </c>
       <c r="N29" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O29" t="n">
-        <v>307.1134416264808</v>
+        <v>1017.484398893474</v>
       </c>
       <c r="P29" t="n">
         <v>1098.790858353466</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>33.57799788973141</v>
+        <v>59.90494047605222</v>
       </c>
       <c r="J30" t="n">
-        <v>139.9893941956736</v>
+        <v>113.6624516093531</v>
       </c>
       <c r="K30" t="n">
-        <v>157.4829488288205</v>
+        <v>157.4829488288204</v>
       </c>
       <c r="L30" t="n">
         <v>211.7552593033316</v>
       </c>
       <c r="M30" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N30" t="n">
-        <v>253.6486238042271</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O30" t="n">
         <v>232.0389364999055</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K31" t="n">
-        <v>125.560371956797</v>
+        <v>94.99309216092993</v>
       </c>
       <c r="L31" t="n">
         <v>543.992676997075</v>
@@ -37004,13 +37004,13 @@
         <v>571.844899503342</v>
       </c>
       <c r="O31" t="n">
-        <v>539.4758283977842</v>
+        <v>539.4758283977844</v>
       </c>
       <c r="P31" t="n">
-        <v>449.9050222150213</v>
+        <v>449.9050222150208</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.46489607936837</v>
+        <v>99.03217587523568</v>
       </c>
       <c r="R31" t="n">
         <v>15.55972419750123</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J32" t="n">
-        <v>154.7039162332532</v>
+        <v>594.355115680645</v>
       </c>
       <c r="K32" t="n">
         <v>231.8610675804437</v>
       </c>
       <c r="L32" t="n">
-        <v>1146.545904713965</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M32" t="n">
         <v>1146.545904713965</v>
       </c>
       <c r="N32" t="n">
-        <v>909.7796067296194</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O32" t="n">
         <v>307.1134416264808</v>
       </c>
       <c r="P32" t="n">
-        <v>262.1142171076108</v>
+        <v>543.0242590965308</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.8368610334019</v>
+        <v>748.8558367491542</v>
       </c>
       <c r="R32" t="n">
-        <v>114.4985331517355</v>
+        <v>285.3612248214895</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>33.57799788973141</v>
+        <v>33.57799788973139</v>
       </c>
       <c r="J33" t="n">
-        <v>139.9893941956736</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K33" t="n">
         <v>157.4829488288205</v>
@@ -37159,7 +37159,7 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N33" t="n">
-        <v>253.6486238042271</v>
+        <v>253.6486238042269</v>
       </c>
       <c r="O33" t="n">
         <v>232.0389364999055</v>
@@ -37171,7 +37171,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R33" t="n">
-        <v>60.55160995248889</v>
+        <v>108.4004114675636</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>57.80604677116999</v>
+        <v>145.2602742102507</v>
       </c>
       <c r="K34" t="n">
-        <v>125.560371956797</v>
+        <v>372.5268846570265</v>
       </c>
       <c r="L34" t="n">
         <v>543.992676997075</v>
       </c>
       <c r="M34" t="n">
-        <v>592.2914632887305</v>
+        <v>128.1663449241719</v>
       </c>
       <c r="N34" t="n">
-        <v>571.844899503342</v>
+        <v>531.6575859464372</v>
       </c>
       <c r="O34" t="n">
         <v>539.4758283977842</v>
       </c>
       <c r="P34" t="n">
-        <v>449.9050222150213</v>
+        <v>449.9050222150208</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.46489607936837</v>
+        <v>238.3565878615223</v>
       </c>
       <c r="R34" t="n">
         <v>15.55972419750123</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J35" t="n">
-        <v>154.7039162332532</v>
+        <v>154.7039162332533</v>
       </c>
       <c r="K35" t="n">
         <v>231.8610675804437</v>
       </c>
       <c r="L35" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N35" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O35" t="n">
-        <v>307.1134416264808</v>
+        <v>307.1134416264806</v>
       </c>
       <c r="P35" t="n">
         <v>262.114217107611</v>
@@ -37329,7 +37329,7 @@
         <v>196.8368610334021</v>
       </c>
       <c r="R35" t="n">
-        <v>114.4985331517355</v>
+        <v>114.498533151735</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>33.5779978897314</v>
+        <v>33.57799788973139</v>
       </c>
       <c r="J36" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K36" t="n">
-        <v>157.4829488288205</v>
+        <v>157.4829488288204</v>
       </c>
       <c r="L36" t="n">
         <v>211.7552593033316</v>
@@ -37396,10 +37396,10 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N36" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042269</v>
       </c>
       <c r="O36" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P36" t="n">
         <v>186.2317034551752</v>
@@ -37408,7 +37408,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R36" t="n">
-        <v>108.4004114675631</v>
+        <v>108.4004114675636</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116997</v>
       </c>
       <c r="K37" t="n">
-        <v>94.99309216092996</v>
+        <v>372.5268846570265</v>
       </c>
       <c r="L37" t="n">
-        <v>543.992676997075</v>
+        <v>512.9056829485701</v>
       </c>
       <c r="M37" t="n">
-        <v>278.9041441926704</v>
+        <v>128.1663449241718</v>
       </c>
       <c r="N37" t="n">
-        <v>571.844899503342</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O37" t="n">
         <v>539.4758283977842</v>
       </c>
       <c r="P37" t="n">
-        <v>98.88795759851428</v>
+        <v>449.9050222150211</v>
       </c>
       <c r="Q37" t="n">
         <v>68.46489607936837</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J38" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K38" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L38" t="n">
-        <v>287.6441568916084</v>
+        <v>287.6441568916078</v>
       </c>
       <c r="M38" t="n">
         <v>320.0595476374288</v>
@@ -37621,10 +37621,10 @@
         <v>33.5779978897314</v>
       </c>
       <c r="J39" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059923</v>
       </c>
       <c r="K39" t="n">
-        <v>157.4829488288205</v>
+        <v>157.4829488288204</v>
       </c>
       <c r="L39" t="n">
         <v>211.7552593033316</v>
@@ -37633,19 +37633,19 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N39" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042269</v>
       </c>
       <c r="O39" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P39" t="n">
         <v>186.2317034551752</v>
       </c>
       <c r="Q39" t="n">
-        <v>172.3397633727484</v>
+        <v>124.4909618576742</v>
       </c>
       <c r="R39" t="n">
-        <v>60.55160995248889</v>
+        <v>108.4004114675636</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>57.80604677116998</v>
       </c>
       <c r="K40" t="n">
-        <v>94.99309216092996</v>
+        <v>372.5268846570265</v>
       </c>
       <c r="L40" t="n">
-        <v>543.992676997075</v>
+        <v>512.9056829485705</v>
       </c>
       <c r="M40" t="n">
         <v>128.1663449241718</v>
       </c>
       <c r="N40" t="n">
-        <v>201.67394237318</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O40" t="n">
         <v>539.4758283977842</v>
@@ -37721,7 +37721,7 @@
         <v>449.9050222150211</v>
       </c>
       <c r="Q40" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R40" t="n">
         <v>15.55972419750123</v>
@@ -37776,22 +37776,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J41" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K41" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L41" t="n">
         <v>287.6441568916078</v>
       </c>
       <c r="M41" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N41" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O41" t="n">
         <v>307.1134416264808</v>
@@ -37800,10 +37800,10 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334023</v>
       </c>
       <c r="R41" t="n">
-        <v>114.4985331517355</v>
+        <v>114.498533151735</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J42" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K42" t="n">
         <v>157.4829488288205</v>
       </c>
       <c r="L42" t="n">
-        <v>259.604060818406</v>
+        <v>211.7552593033316</v>
       </c>
       <c r="M42" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N42" t="n">
         <v>253.6486238042271</v>
@@ -37882,7 +37882,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R42" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124266</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K43" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L43" t="n">
-        <v>161.4702209110324</v>
+        <v>249.6238688327626</v>
       </c>
       <c r="M43" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="N43" t="n">
-        <v>125.1188357077415</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O43" t="n">
         <v>539.4758283977842</v>
@@ -37958,7 +37958,7 @@
         <v>98.88795759851428</v>
       </c>
       <c r="Q43" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R43" t="n">
         <v>15.55972419750123</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J44" t="n">
-        <v>154.7039162332535</v>
+        <v>154.7039162332533</v>
       </c>
       <c r="K44" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6441568916077</v>
+        <v>287.6441568916078</v>
       </c>
       <c r="M44" t="n">
         <v>320.0595476374285</v>
       </c>
       <c r="N44" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O44" t="n">
-        <v>307.1134416264808</v>
+        <v>307.1134416264811</v>
       </c>
       <c r="P44" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334023</v>
       </c>
       <c r="R44" t="n">
-        <v>114.4985331517355</v>
+        <v>114.498533151735</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J45" t="n">
-        <v>139.9893941956736</v>
+        <v>113.6624516093531</v>
       </c>
       <c r="K45" t="n">
         <v>157.4829488288205</v>
@@ -38104,10 +38104,10 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M45" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N45" t="n">
-        <v>253.6486238042271</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O45" t="n">
         <v>232.0389364999055</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K46" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L46" t="n">
-        <v>162.1696413936822</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M46" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="N46" t="n">
         <v>571.844899503342</v>
       </c>
       <c r="O46" t="n">
-        <v>539.4758283977842</v>
+        <v>245.1070202334718</v>
       </c>
       <c r="P46" t="n">
         <v>98.88795759851428</v>
